--- a/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Clase-trans_dic.xlsx
@@ -675,24 +675,24 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09213375212915635</v>
+        <v>0.09894017977724701</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1594994092493914</v>
+        <v>0.160756302299035</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.08913554342668564</v>
+        <v>0.129630861427774</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.154006634624646</v>
+        <v>0.1076826178852978</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
-        <v>0.1514495469520808</v>
+        <v>0.1545151168889671</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2069120052912413</v>
+        <v>0.2093524898200213</v>
       </c>
       <c r="K5" s="5" t="inlineStr"/>
     </row>
@@ -704,24 +704,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5907256654455642</v>
+        <v>0.5997476858140737</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5292298684107063</v>
+        <v>0.5614015450966269</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.7114173631863681</v>
+        <v>0.6672280563450121</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8019799474928255</v>
+        <v>0.7980988874164944</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.5388587661673123</v>
+        <v>0.5329250032228037</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5242695125645489</v>
+        <v>0.5276098946624744</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
     </row>
@@ -772,24 +772,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06533359969984394</v>
+        <v>0.06427678018014733</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1201448950971652</v>
+        <v>0.1321038957369606</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.2827518618791066</v>
+        <v>0.3446236528803699</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.2195802454254479</v>
+        <v>0.2113969233608117</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1468514066560697</v>
+        <v>0.1558817550731594</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
     </row>
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5351301855424694</v>
+        <v>0.53362314357662</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.519761612814942</v>
+        <v>0.5424487052600098</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
@@ -815,10 +815,10 @@
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.6309240736582841</v>
+        <v>0.6258435736696366</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4904400057518706</v>
+        <v>0.5203936677304116</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
     </row>
@@ -840,7 +840,7 @@
         <v>0.1804428973253945</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.01939318533705797</v>
+        <v>0.01939318533705796</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5386139600055103</v>
@@ -872,23 +872,23 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0640863575967638</v>
+        <v>0.06389881659580647</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1865226895601733</v>
+        <v>0.1824423739507759</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2735187675073418</v>
+        <v>0.1413589115320568</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.08146881874519646</v>
+        <v>0.08452675387228137</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1273492685808502</v>
+        <v>0.1272197065496676</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
@@ -902,29 +902,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2139457042168093</v>
+        <v>0.2108560930302655</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3656473559855895</v>
+        <v>0.3608509432273916</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05990430587191811</v>
+        <v>0.07213045870325414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8916094735293243</v>
+        <v>0.8513573873458937</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1</v>
+        <v>0.8627406527678796</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.370310086855024</v>
+        <v>0.3680885926170576</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4228468874623312</v>
+        <v>0.4208144897963091</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05090586031025073</v>
+        <v>0.0463987463619937</v>
       </c>
     </row>
     <row r="13">
@@ -963,7 +963,7 @@
         <v>0.2028736389693335</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.004086026505397006</v>
+        <v>0.004086026505397005</v>
       </c>
     </row>
     <row r="14">
@@ -974,26 +974,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02848417489202491</v>
+        <v>0.03091830866389693</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1150681145267091</v>
+        <v>0.1183874162776254</v>
       </c>
       <c r="E14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06705377721794022</v>
+        <v>0.06665432425405302</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04421359627229913</v>
+        <v>0.04265680276552625</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
-        <v>0.06206391762027298</v>
+        <v>0.06182297952722567</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1258757344446094</v>
+        <v>0.1214959050660119</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1007,29 +1007,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2418241248176283</v>
+        <v>0.2658026592530205</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3498810558503286</v>
+        <v>0.3435915416082574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.019966468587845</v>
+        <v>0.02252345133869084</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4976089129252212</v>
+        <v>0.496475911705919</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3883766477410435</v>
+        <v>0.3672372617950794</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.270629102630554</v>
+        <v>0.2871253159472759</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3184843475811745</v>
+        <v>0.3060656387817166</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01429514761766666</v>
+        <v>0.01435230938830532</v>
       </c>
     </row>
     <row r="16">
@@ -1050,7 +1050,7 @@
         <v>0.1263459873408697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.008348547011713194</v>
+        <v>0.008348547011713196</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.1775020291452198</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03991449768237241</v>
+        <v>0.04024685553075297</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05012093202969879</v>
+        <v>0.04308275631592079</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06675232983350639</v>
+        <v>0.06743701066252186</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.005420297875852932</v>
+        <v>0.00606825748488455</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07385372051278065</v>
+        <v>0.090668743696919</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06234562150491007</v>
+        <v>0.07467152341948208</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005311229606626866</v>
+        <v>0.003981425380787056</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6759270918902003</v>
+        <v>0.6300462019335703</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3331786784528283</v>
+        <v>0.314232721035912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04279364723240837</v>
+        <v>0.04328876077744145</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3979032000069249</v>
+        <v>0.3606285121891482</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.409012878095337</v>
+        <v>0.3818353608172603</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04863350490717935</v>
+        <v>0.04784845875754266</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3657745780476705</v>
+        <v>0.3666737777253883</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.295085699224194</v>
+        <v>0.2987797696830694</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03317235719821639</v>
+        <v>0.03257570328961062</v>
       </c>
     </row>
     <row r="19">
@@ -1187,17 +1187,17 @@
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.2248823997658174</v>
+        <v>0.2339439780736812</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1282468442529124</v>
+        <v>0.1294444494802927</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.2248823997658174</v>
+        <v>0.2339439780736812</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1282468442529124</v>
+        <v>0.1294444494802927</v>
       </c>
       <c r="K20" s="5" t="inlineStr"/>
     </row>
@@ -1212,17 +1212,17 @@
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.5690512782186892</v>
+        <v>0.5998835185837801</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4030263805140455</v>
+        <v>0.4016081756376687</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.5690512782186892</v>
+        <v>0.5998835185837801</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4030263805140455</v>
+        <v>0.4016081756376687</v>
       </c>
       <c r="K21" s="5" t="inlineStr"/>
     </row>
@@ -1244,7 +1244,7 @@
         <v>0.2281053014149002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.006156589295539983</v>
+        <v>0.006156589295539982</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.3518643197802621</v>
@@ -1253,7 +1253,7 @@
         <v>0.2632966431490277</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.004212424879542687</v>
+        <v>0.004212424879542686</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.2562425438545646</v>
@@ -1262,7 +1262,7 @@
         <v>0.242832256242703</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.005224442872269515</v>
+        <v>0.005224442872269514</v>
       </c>
     </row>
     <row r="23">
@@ -1273,31 +1273,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.002150829062313048</v>
+        <v>0.00203905881411554</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2542172724532009</v>
+        <v>0.2598447784931197</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1856977488670936</v>
+        <v>0.1856139012431191</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.001385941064354655</v>
+        <v>0.001378616078924366</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2037177600242693</v>
+        <v>0.1969883502069903</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1927725138540969</v>
+        <v>0.1888543286223761</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.002508987010046553</v>
+        <v>0.002165347729795851</v>
       </c>
     </row>
     <row r="24">
@@ -1308,31 +1308,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01537106444737062</v>
+        <v>0.01511715894899271</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4489695961249733</v>
+        <v>0.4574350027047826</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3628545011200303</v>
+        <v>0.3627356853305747</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01025915690130268</v>
+        <v>0.01124351294624533</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3180993341903351</v>
+        <v>0.3165698848309142</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3038305686503552</v>
+        <v>0.2999487285820804</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01022409392804148</v>
+        <v>0.009935768173982401</v>
       </c>
     </row>
     <row r="25">
@@ -1563,24 +1563,24 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1765</v>
+        <v>1895</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4934</v>
+        <v>4973</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1192</v>
+        <v>1734</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1708</v>
+        <v>1194</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>4927</v>
+        <v>5026</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8696</v>
+        <v>8798</v>
       </c>
       <c r="K6" s="6" t="inlineStr"/>
     </row>
@@ -1592,24 +1592,24 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11315</v>
+        <v>11488</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16373</v>
+        <v>17368</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>9514</v>
+        <v>8924</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8893</v>
+        <v>8850</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>17529</v>
+        <v>17336</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>22033</v>
+        <v>22173</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
     </row>
@@ -1695,24 +1695,24 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3238</v>
+        <v>3560</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>2349</v>
+        <v>2863</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>5388</v>
+        <v>5187</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4738</v>
+        <v>5029</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8685</v>
+        <v>8660</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14006</v>
+        <v>14617</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
@@ -1738,10 +1738,10 @@
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>15481</v>
+        <v>15356</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15823</v>
+        <v>16789</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
     </row>
@@ -1830,23 +1830,23 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1872</v>
+        <v>1866</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2033</v>
+        <v>1989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2011</v>
+        <v>1040</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>3274</v>
+        <v>3397</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4656</v>
+        <v>4651</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
@@ -1860,29 +1860,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6266</v>
+        <v>6176</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10679</v>
+        <v>10539</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5478</v>
+        <v>6595</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9720</v>
+        <v>9281</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7354</v>
+        <v>6345</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>14883</v>
+        <v>14793</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>15458</v>
+        <v>15384</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6488</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="16">
@@ -1967,26 +1967,26 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1032</v>
+        <v>1120</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>5679</v>
+        <v>5843</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>3147</v>
+        <v>3135</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>9272</v>
+        <v>8950</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -2000,29 +2000,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8760</v>
+        <v>9629</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17269</v>
+        <v>16958</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3472</v>
+        <v>3917</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7208</v>
+        <v>7192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9439</v>
+        <v>8926</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>13724</v>
+        <v>14560</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>23460</v>
+        <v>22545</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3823</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="20">
@@ -2110,28 +2110,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1350</v>
+        <v>1160</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1830</v>
+        <v>1849</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2614</v>
+        <v>3210</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3158</v>
+        <v>3782</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1025</v>
+        <v>769</v>
       </c>
     </row>
     <row r="23">
@@ -2142,31 +2142,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5725</v>
+        <v>5336</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7743</v>
+        <v>7303</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3123</v>
+        <v>3159</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10716</v>
+        <v>9712</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11211</v>
+        <v>10466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5839</v>
+        <v>5744</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>12948</v>
+        <v>12980</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>14947</v>
+        <v>15134</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6403</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="24">
@@ -2250,17 +2250,17 @@
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>7187</v>
+        <v>7477</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>5058</v>
+        <v>5106</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>7187</v>
+        <v>7477</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5058</v>
+        <v>5106</v>
       </c>
       <c r="K26" s="6" t="inlineStr"/>
     </row>
@@ -2275,17 +2275,17 @@
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>18186</v>
+        <v>19172</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15896</v>
+        <v>15840</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>18186</v>
+        <v>19172</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>15896</v>
+        <v>15840</v>
       </c>
       <c r="K27" s="6" t="inlineStr"/>
     </row>
@@ -2371,31 +2371,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1214</v>
+        <v>1151</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>26937</v>
+        <v>27533</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>21340</v>
+        <v>21330</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>43866</v>
+        <v>42417</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>52936</v>
+        <v>51860</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>2721</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="31">
@@ -2406,31 +2406,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8676</v>
+        <v>8533</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>47572</v>
+        <v>48469</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>41698</v>
+        <v>41684</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5334</v>
+        <v>5846</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>68495</v>
+        <v>68165</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>83432</v>
+        <v>82367</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>11087</v>
+        <v>10774</v>
       </c>
     </row>
     <row r="32">
